--- a/打包/RND_stats_2021-04-01_to_2021-06-15_exp_2021-06-25_比較.xlsx
+++ b/打包/RND_stats_2021-04-01_to_2021-06-15_exp_2021-06-25_比較.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RND_Thesis\打包\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE877A1-A9A3-427E-A0B3-9F7559E683EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33894F1C-08C4-4D32-A9E1-3A367499A630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C1C759C7-3DFA-40CC-8B8B-B32796D2E766}"/>
   </bookViews>
@@ -7082,6 +7082,94 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>878961</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A11E6F-3AE1-976B-4B7A-CA4CD1CC6A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17056100"/>
+          <a:ext cx="3622161" cy="2406650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>907633</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44DDE80C-CDA9-468A-47AE-8BB37C7063B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286251" y="17056100"/>
+          <a:ext cx="3650832" cy="2425700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
